--- a/automationdemo.maven/testdata/CalcInputREF.xlsx
+++ b/automationdemo.maven/testdata/CalcInputREF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshZhuang\git\AutomationFramework\automationdemo.maven\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54AFAF-7F60-4A23-8D84-46506DA41D18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4B961B-D9A5-4552-BF81-2486868D4EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>276622</t>
   </si>
@@ -45,10 +45,31 @@
     <t>breakevenrate</t>
   </si>
   <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>2.39</t>
+    <t>2.191</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>536800</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>798100</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2.99</t>
   </si>
 </sst>
 </file>
@@ -367,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -399,13 +420,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
